--- a/MALE_GROUP_6_FINAL/Planning.xlsx
+++ b/MALE_GROUP_6_FINAL/Planning.xlsx
@@ -4,18 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="FINAL_PLANING" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Chart2" sheetId="4" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="3" r:id="rId2"/>
+    <sheet name="FINAL_PLANING" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="43">
   <si>
     <t>Tuần 2</t>
   </si>
@@ -141,13 +143,16 @@
   </si>
   <si>
     <t>Công việc tạm hoàn thành, nhưng thay đổi sau</t>
+  </si>
+  <si>
+    <t>MACHINE LEARNING - PROJECT PLANNING</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +202,82 @@
       <color rgb="FF92D050"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF92D050"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFC00000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="163"/>
       <scheme val="major"/>
     </font>
   </fonts>
@@ -378,7 +459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -503,23 +584,161 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -537,6 +756,1588 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="vi-VN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="795797055"/>
+        <c:axId val="795799135"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="795797055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795799135"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="795799135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795797055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="vi-VN"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="vi-VN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="746073503"/>
+        <c:axId val="745761855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="746073503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="745761855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="745761855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="vi-VN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="746073503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="vi-VN"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="76" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9299408" cy="6065921"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9299408" cy="6065921"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -826,487 +2627,513 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q78"/>
+  <dimension ref="A1:Q79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19:P19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="31.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="31.375" defaultRowHeight="16.5" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.375" style="13"/>
-    <col min="3" max="3" width="13.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.25" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="13.375" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13" style="13" customWidth="1"/>
-    <col min="8" max="8" width="12.625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="10.875" style="13" customWidth="1"/>
-    <col min="10" max="11" width="12.125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="13.125" style="13" customWidth="1"/>
-    <col min="13" max="13" width="11.375" style="13" customWidth="1"/>
-    <col min="14" max="14" width="9.875" style="13" customWidth="1"/>
-    <col min="15" max="15" width="11.625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="12.125" style="13" customWidth="1"/>
-    <col min="17" max="16384" width="31.375" style="13"/>
+    <col min="1" max="1" width="26.625" style="47" customWidth="1"/>
+    <col min="2" max="2" width="24.625" style="52" customWidth="1"/>
+    <col min="3" max="3" width="10.75" style="52" customWidth="1"/>
+    <col min="4" max="4" width="10.125" style="52" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="10.5" style="52" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="52" customWidth="1"/>
+    <col min="8" max="8" width="9.375" style="52" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="52" customWidth="1"/>
+    <col min="10" max="10" width="9.25" style="52" customWidth="1"/>
+    <col min="11" max="11" width="9.625" style="52" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="52" customWidth="1"/>
+    <col min="13" max="13" width="10" style="52" customWidth="1"/>
+    <col min="14" max="14" width="9.5" style="52" customWidth="1"/>
+    <col min="15" max="15" width="10.375" style="52" customWidth="1"/>
+    <col min="16" max="16" width="10.125" style="52" customWidth="1"/>
+    <col min="17" max="16384" width="31.375" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43" t="s">
+    <row r="1" spans="1:16" s="93" customFormat="1" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="91"/>
+      <c r="P1" s="92"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="68"/>
+    </row>
+    <row r="3" spans="1:16" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="45"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43" t="s">
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="44" t="s">
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="44"/>
-    </row>
-    <row r="2" spans="1:16" s="7" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="P3" s="46"/>
+    </row>
+    <row r="4" spans="1:16" s="74" customFormat="1" ht="19.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C4" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D4" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E4" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F4" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G4" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M4" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O4" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P4" s="73" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25" t="s">
+    <row r="5" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B5" s="76" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="12"/>
-    </row>
-    <row r="4" spans="1:16" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="51"/>
+    </row>
+    <row r="6" spans="1:16" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B6" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="55"/>
+    </row>
+    <row r="7" spans="1:16" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="20"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B7" s="79"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="60"/>
+    </row>
+    <row r="8" spans="1:16" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="12"/>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B8" s="79"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="51"/>
+    </row>
+    <row r="9" spans="1:16" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B9" s="79"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="60"/>
+    </row>
+    <row r="10" spans="1:16" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="12"/>
-    </row>
-    <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="B10" s="79"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="51"/>
+    </row>
+    <row r="11" spans="1:16" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B11" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
+    </row>
+    <row r="12" spans="1:16" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B12" s="79"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="60"/>
+    </row>
+    <row r="13" spans="1:16" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="16"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B13" s="79"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="60"/>
+      <c r="L13" s="55"/>
+    </row>
+    <row r="14" spans="1:16" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="45"/>
-      <c r="L12" s="46"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="16"/>
-    </row>
-    <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="B14" s="79"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="66"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="60"/>
+      <c r="N14" s="55"/>
+    </row>
+    <row r="15" spans="1:16" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B15" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="47"/>
-      <c r="M13" s="45"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="12"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="17"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="8"/>
-      <c r="B15" s="17"/>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="C15" s="67"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="51"/>
+    </row>
+    <row r="16" spans="1:16" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="81"/>
+      <c r="B16" s="79"/>
+      <c r="L16" s="53"/>
+      <c r="M16" s="53"/>
+      <c r="N16" s="53"/>
+    </row>
+    <row r="17" spans="1:17" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="81"/>
+      <c r="B17" s="79"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+    </row>
+    <row r="18" spans="1:17" ht="37.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B18" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="M16" s="18"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="46"/>
-      <c r="P16" s="12"/>
-    </row>
-    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B17" s="17"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-    </row>
-    <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B18" s="17"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
-    </row>
-    <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
+      <c r="M18" s="56"/>
+      <c r="N18" s="66"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="51"/>
+    </row>
+    <row r="19" spans="1:17" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="78"/>
+      <c r="B19" s="79"/>
+      <c r="N19" s="53"/>
+      <c r="O19" s="53"/>
+    </row>
+    <row r="20" spans="1:17" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="78"/>
+      <c r="B20" s="79"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+    </row>
+    <row r="21" spans="1:17" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="12"/>
-    </row>
-    <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="22"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-    </row>
-    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-    </row>
-    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="39" t="s">
+      <c r="B21" s="79"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="66"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="51"/>
+    </row>
+    <row r="22" spans="1:17" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="82"/>
+      <c r="B22" s="83"/>
+      <c r="O22" s="53"/>
+      <c r="P22" s="53"/>
+    </row>
+    <row r="23" spans="1:17" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="84" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="34"/>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="85"/>
+    </row>
+    <row r="24" spans="1:17" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="86"/>
+      <c r="B24" s="85" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="40"/>
-      <c r="B24" s="13" t="s">
+    <row r="25" spans="1:17" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="87"/>
+      <c r="B25" s="85" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="41"/>
-      <c r="B25" s="26" t="s">
+    <row r="26" spans="1:17" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="88"/>
+      <c r="B26" s="89" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-    </row>
-    <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="39"/>
-    </row>
-    <row r="28" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="39"/>
-    </row>
-    <row r="29" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-    </row>
-    <row r="30" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="39"/>
-    </row>
-    <row r="31" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="39"/>
-    </row>
-    <row r="32" spans="1:17" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="39"/>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="39"/>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="39"/>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="39"/>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="39"/>
-    </row>
-    <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="39"/>
-    </row>
-    <row r="40" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="39"/>
-    </row>
-    <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="39"/>
-    </row>
-    <row r="42" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="39"/>
-    </row>
-    <row r="43" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="39"/>
-    </row>
-    <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="39"/>
-    </row>
-    <row r="45" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="39"/>
-    </row>
-    <row r="46" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
-    </row>
-    <row r="47" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="39"/>
-    </row>
-    <row r="48" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="39"/>
-    </row>
-    <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="39"/>
-    </row>
-    <row r="50" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="39"/>
-    </row>
-    <row r="51" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="39"/>
-    </row>
-    <row r="52" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="39"/>
-    </row>
-    <row r="53" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="39"/>
-    </row>
-    <row r="54" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="39"/>
-    </row>
-    <row r="55" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="39"/>
-    </row>
-    <row r="56" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="39"/>
-    </row>
-    <row r="57" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="39"/>
-    </row>
-    <row r="58" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="39"/>
-    </row>
-    <row r="59" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="39"/>
-    </row>
-    <row r="60" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="39"/>
-    </row>
-    <row r="61" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="39"/>
-    </row>
-    <row r="62" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="39"/>
-    </row>
-    <row r="63" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="39"/>
-    </row>
-    <row r="64" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="39"/>
-    </row>
-    <row r="65" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A65" s="39"/>
-    </row>
-    <row r="66" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="39"/>
-    </row>
-    <row r="67" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="39"/>
-    </row>
-    <row r="68" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="39"/>
-    </row>
-    <row r="69" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="39"/>
-    </row>
-    <row r="70" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="39"/>
-    </row>
-    <row r="71" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="39"/>
-    </row>
-    <row r="72" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A72" s="39"/>
-    </row>
-    <row r="73" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A73" s="39"/>
-    </row>
-    <row r="74" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A74" s="39"/>
-    </row>
-    <row r="75" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A75" s="39"/>
-    </row>
-    <row r="76" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="39"/>
-    </row>
-    <row r="77" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A77" s="39"/>
-    </row>
-    <row r="78" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A78" s="39"/>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="68"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" s="68"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" s="68"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" s="68"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="68"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="68"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="68"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="68"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="68"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="68"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="68"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="68"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="68"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="68"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="68"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="68"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="68"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="68"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="68"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="68"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="68"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="68"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="68"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="68"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="68"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="68"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="68"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="68"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="68"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="68"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="68"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="68"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="68"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="68"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="68"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="68"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="68"/>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="68"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="68"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="68"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="68"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="68"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="68"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="68"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="68"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="68"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="68"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="68"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="68"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="68"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="68"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="68"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="G6:H6"/>
+  <mergeCells count="13">
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="A1:P1"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="N18:O18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1339,30 +3166,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="43"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43" t="s">
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43" t="s">
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="44" t="s">
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="44"/>
+      <c r="P1" s="43"/>
     </row>
     <row r="2" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1458,8 +3285,8 @@
       <c r="B6" s="17"/>
       <c r="E6" s="14"/>
       <c r="F6" s="21"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
